--- a/data/china-sources.xlsx
+++ b/data/china-sources.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/PersonalCode/global-news/source-gathering/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/PersonalCode/global-news/global-news-aggregator/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F61427A8-A8F7-D64C-A367-3DB93473861B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB44C9D1-2040-2F4A-B15F-C66D335CCDF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20440" xr2:uid="{44088A11-FDB8-FF4C-BBCA-B751FF4DEA14}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20440" activeTab="1" xr2:uid="{44088A11-FDB8-FF4C-BBCA-B751FF4DEA14}"/>
   </bookViews>
   <sheets>
-    <sheet name="sources" sheetId="1" r:id="rId1"/>
+    <sheet name="orgs" sheetId="1" r:id="rId1"/>
+    <sheet name="urls" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="412">
   <si>
     <t>Country</t>
   </si>
@@ -1282,13 +1283,22 @@
   </si>
   <si>
     <t>https://www.mofcom.gov.cn/yjts/jwfx/index.html</t>
+  </si>
+  <si>
+    <t>商务部</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>url</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1340,6 +1350,11 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Songti TC Regular"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1398,7 +1413,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1416,9 +1430,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1434,6 +1445,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1771,32 +1784,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{584B8D8F-BBE5-AC43-A33E-20931CEA2801}">
   <dimension ref="A1:BN47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AT1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="75" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="BD27" sqref="BD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
   <cols>
-    <col min="2" max="2" width="20.6640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="4" customWidth="1"/>
     <col min="4" max="4" width="48.83203125" style="1" customWidth="1"/>
     <col min="5" max="7" width="14.1640625" style="1" customWidth="1"/>
     <col min="12" max="14" width="10.83203125" customWidth="1"/>
-    <col min="15" max="15" width="10.83203125" style="10"/>
-    <col min="16" max="64" width="10.83203125" style="1"/>
-    <col min="65" max="65" width="100.83203125" style="2" customWidth="1"/>
-    <col min="66" max="66" width="10.83203125" style="16"/>
+    <col min="15" max="64" width="10.83203125" style="1"/>
+    <col min="65" max="65" width="100.83203125" customWidth="1"/>
+    <col min="66" max="66" width="10.83203125" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:66" s="1" customFormat="1" ht="48">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -1820,43 +1832,43 @@
       <c r="J1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="1" t="s">
         <v>148</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="1" t="s">
         <v>155</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="1" t="s">
         <v>157</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="Q1" s="1" t="s">
         <v>161</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="S1" s="1" t="s">
         <v>165</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="U1" s="1" t="s">
         <v>196</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="W1" s="1" t="s">
         <v>198</v>
       </c>
       <c r="X1" s="1" t="s">
@@ -1982,10 +1994,10 @@
       <c r="BL1" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="BM1" s="2" t="s">
+      <c r="BM1" t="s">
         <v>1</v>
       </c>
-      <c r="BN1" s="14" t="s">
+      <c r="BN1" s="12" t="s">
         <v>214</v>
       </c>
     </row>
@@ -1993,8 +2005,8 @@
       <c r="A2" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
         <v>33</v>
       </c>
@@ -2004,36 +2016,32 @@
       <c r="F2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="K2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="BM2" s="2" t="s">
+      <c r="BM2" t="s">
         <v>82</v>
       </c>
-      <c r="BN2" s="15"/>
+      <c r="BN2" s="13"/>
     </row>
     <row r="3" spans="1:66" s="1" customFormat="1">
       <c r="A3" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
       <c r="D3" s="1" t="s">
         <v>59</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="K3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="BM3" s="2"/>
-      <c r="BN3" s="15"/>
+      <c r="BM3"/>
+      <c r="BN3" s="13"/>
     </row>
     <row r="4" spans="1:66" s="1" customFormat="1" ht="87">
       <c r="A4"/>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="3"/>
       <c r="D4" s="1" t="s">
         <v>77</v>
       </c>
@@ -2043,60 +2051,60 @@
       <c r="G4" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="M4" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="N4" s="7" t="s">
         <v>151</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="P4" s="8" t="s">
+      <c r="P4" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="Q4" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="R4" s="8" t="s">
+      <c r="R4" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="S4" s="9" t="s">
+      <c r="S4" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="T4" s="8" t="s">
+      <c r="T4" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="BM4" s="2" t="s">
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="BM4" t="s">
         <v>79</v>
       </c>
-      <c r="BN4" s="15"/>
+      <c r="BN4" s="13"/>
     </row>
     <row r="5" spans="1:66" s="1" customFormat="1" ht="104">
       <c r="A5" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="3"/>
       <c r="D5" s="1" t="s">
         <v>64</v>
       </c>
@@ -2106,43 +2114,43 @@
       <c r="G5" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="7" t="s">
         <v>170</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="7" t="s">
         <v>172</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="L5" s="7" t="s">
         <v>173</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="N5" s="8" t="s">
+      <c r="N5" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="O5" s="10" t="s">
+      <c r="O5" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="P5" s="8" t="s">
+      <c r="P5" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="BM5" s="2" t="s">
+      <c r="BM5" t="s">
         <v>66</v>
       </c>
-      <c r="BN5" s="15"/>
+      <c r="BN5" s="13"/>
     </row>
     <row r="6" spans="1:66" ht="87">
       <c r="A6" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="5" t="str">
+      <c r="B6" s="4" t="str">
         <f>_xlfn.TRANSLATE(D6, "en", "zh-chs")</f>
         <v>中共中央全面深化改革委员会</v>
       </c>
@@ -2158,12 +2166,12 @@
       <c r="G6" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="10" t="s">
         <v>179</v>
       </c>
       <c r="W6"/>
       <c r="X6"/>
-      <c r="BM6" s="2" t="s">
+      <c r="BM6" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2171,7 +2179,7 @@
       <c r="A7" t="s">
         <v>76</v>
       </c>
-      <c r="B7" s="5" t="str">
+      <c r="B7" s="4" t="str">
         <f t="shared" ref="B7:B44" si="0">_xlfn.TRANSLATE(D7, "en", "zh-chs")</f>
         <v>中共中央军民融合发展委员会</v>
       </c>
@@ -2186,7 +2194,7 @@
       </c>
       <c r="W7"/>
       <c r="X7"/>
-      <c r="BM7" s="2" t="s">
+      <c r="BM7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2194,7 +2202,7 @@
       <c r="A8" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="5" t="str">
+      <c r="B8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>中共中央网信办</v>
       </c>
@@ -2207,87 +2215,87 @@
       <c r="G8" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="7" t="s">
         <v>183</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="7" t="s">
         <v>185</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="L8" s="8" t="s">
+      <c r="L8" s="7" t="s">
         <v>187</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="N8" s="8" t="s">
+      <c r="N8" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="O8" s="10" t="s">
+      <c r="O8" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="P8" s="8" t="s">
+      <c r="P8" s="7" t="s">
         <v>192</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="R8" s="8" t="s">
+      <c r="R8" s="7" t="s">
         <v>193</v>
       </c>
       <c r="S8" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="T8" s="8" t="s">
+      <c r="T8" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="U8" s="9" t="s">
+      <c r="U8" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="V8" s="8" t="s">
+      <c r="V8" s="7" t="s">
         <v>201</v>
       </c>
       <c r="W8" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="X8" s="8" t="s">
+      <c r="X8" s="7" t="s">
         <v>200</v>
       </c>
       <c r="Y8" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="Z8" s="8" t="s">
+      <c r="Z8" s="7" t="s">
         <v>210</v>
       </c>
       <c r="AA8" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="AB8" s="8" t="s">
+      <c r="AB8" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="AC8" s="8"/>
-      <c r="AD8" s="8"/>
-      <c r="AE8" s="8"/>
-      <c r="AF8" s="8"/>
-      <c r="AG8" s="8"/>
-      <c r="AH8" s="8"/>
-      <c r="AI8" s="8"/>
-      <c r="AJ8" s="8"/>
-      <c r="AK8" s="8"/>
-      <c r="AL8" s="8"/>
-      <c r="AM8" s="8"/>
-      <c r="AN8" s="8"/>
-      <c r="AO8" s="8"/>
-      <c r="AP8" s="8"/>
-      <c r="BM8" s="2" t="s">
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="7"/>
+      <c r="AG8" s="7"/>
+      <c r="AH8" s="7"/>
+      <c r="AI8" s="7"/>
+      <c r="AJ8" s="7"/>
+      <c r="AK8" s="7"/>
+      <c r="AL8" s="7"/>
+      <c r="AM8" s="7"/>
+      <c r="AN8" s="7"/>
+      <c r="AO8" s="7"/>
+      <c r="AP8" s="7"/>
+      <c r="BM8" t="s">
         <v>3</v>
       </c>
-      <c r="BN8" s="16" t="s">
+      <c r="BN8" s="14" t="s">
         <v>216</v>
       </c>
     </row>
@@ -2295,7 +2303,7 @@
       <c r="A9" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="5" t="str">
+      <c r="B9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>中国国家互联网信息办公室</v>
       </c>
@@ -2311,87 +2319,87 @@
       <c r="G9" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="7" t="s">
         <v>183</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="7" t="s">
         <v>185</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="L9" s="8" t="s">
+      <c r="L9" s="7" t="s">
         <v>187</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="N9" s="8" t="s">
+      <c r="N9" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="O9" s="10" t="s">
+      <c r="O9" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="P9" s="8" t="s">
+      <c r="P9" s="7" t="s">
         <v>192</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="R9" s="8" t="s">
+      <c r="R9" s="7" t="s">
         <v>193</v>
       </c>
       <c r="S9" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="T9" s="8" t="s">
+      <c r="T9" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="U9" s="9" t="s">
+      <c r="U9" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="V9" s="8" t="s">
+      <c r="V9" s="7" t="s">
         <v>201</v>
       </c>
       <c r="W9" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="X9" s="8" t="s">
+      <c r="X9" s="7" t="s">
         <v>200</v>
       </c>
       <c r="Y9" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="Z9" s="8" t="s">
+      <c r="Z9" s="7" t="s">
         <v>210</v>
       </c>
       <c r="AA9" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="AB9" s="8" t="s">
+      <c r="AB9" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="AC9" s="8"/>
-      <c r="AD9" s="8"/>
-      <c r="AE9" s="8"/>
-      <c r="AF9" s="8"/>
-      <c r="AG9" s="8"/>
-      <c r="AH9" s="8"/>
-      <c r="AI9" s="8"/>
-      <c r="AJ9" s="8"/>
-      <c r="AK9" s="8"/>
-      <c r="AL9" s="8"/>
-      <c r="AM9" s="8"/>
-      <c r="AN9" s="8"/>
-      <c r="AO9" s="8"/>
-      <c r="AP9" s="8"/>
-      <c r="BM9" s="2" t="s">
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="7"/>
+      <c r="AG9" s="7"/>
+      <c r="AH9" s="7"/>
+      <c r="AI9" s="7"/>
+      <c r="AJ9" s="7"/>
+      <c r="AK9" s="7"/>
+      <c r="AL9" s="7"/>
+      <c r="AM9" s="7"/>
+      <c r="AN9" s="7"/>
+      <c r="AO9" s="7"/>
+      <c r="AP9" s="7"/>
+      <c r="BM9" t="s">
         <v>4</v>
       </c>
-      <c r="BN9" s="16" t="s">
+      <c r="BN9" s="14" t="s">
         <v>215</v>
       </c>
     </row>
@@ -2399,7 +2407,7 @@
       <c r="A10" t="s">
         <v>76</v>
       </c>
-      <c r="B10" s="5" t="str">
+      <c r="B10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>中共中央科学技术委员会</v>
       </c>
@@ -2412,7 +2420,7 @@
       <c r="G10" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="BM10" s="2" t="s">
+      <c r="BM10" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2420,7 +2428,7 @@
       <c r="A11" t="s">
         <v>76</v>
       </c>
-      <c r="B11" s="5" t="str">
+      <c r="B11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>科学技术部</v>
       </c>
@@ -2436,95 +2444,95 @@
       <c r="G11" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="7" t="s">
         <v>219</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="J11" s="7" t="s">
         <v>221</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="L11" s="8" t="s">
+      <c r="L11" s="7" t="s">
         <v>223</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="N11" s="8" t="s">
+      <c r="N11" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="O11" s="10" t="s">
+      <c r="O11" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="P11" s="8" t="s">
+      <c r="P11" s="7" t="s">
         <v>226</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="R11" s="8" t="s">
+      <c r="R11" s="7" t="s">
         <v>230</v>
       </c>
       <c r="S11" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="T11" s="8" t="s">
+      <c r="T11" s="7" t="s">
         <v>232</v>
       </c>
       <c r="U11" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="V11" s="8" t="s">
+      <c r="V11" s="7" t="s">
         <v>234</v>
       </c>
       <c r="W11" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="X11" s="8" t="s">
+      <c r="X11" s="7" t="s">
         <v>236</v>
       </c>
       <c r="Y11" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="Z11" s="8" t="s">
+      <c r="Z11" s="7" t="s">
         <v>237</v>
       </c>
       <c r="AA11" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="AB11" s="8" t="s">
+      <c r="AB11" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="AC11" s="9" t="s">
+      <c r="AC11" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="AD11" s="8" t="s">
+      <c r="AD11" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="AE11" s="9" t="s">
+      <c r="AE11" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="AF11" s="8" t="s">
+      <c r="AF11" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="AG11" s="8"/>
-      <c r="AH11" s="8"/>
-      <c r="AI11" s="8"/>
-      <c r="AJ11" s="8"/>
-      <c r="AK11" s="8"/>
-      <c r="AL11" s="8"/>
-      <c r="AM11" s="8"/>
-      <c r="AN11" s="8"/>
-      <c r="AO11" s="8"/>
-      <c r="AP11" s="8"/>
-      <c r="BM11" s="2" t="s">
+      <c r="AG11" s="7"/>
+      <c r="AH11" s="7"/>
+      <c r="AI11" s="7"/>
+      <c r="AJ11" s="7"/>
+      <c r="AK11" s="7"/>
+      <c r="AL11" s="7"/>
+      <c r="AM11" s="7"/>
+      <c r="AN11" s="7"/>
+      <c r="AO11" s="7"/>
+      <c r="AP11" s="7"/>
+      <c r="BM11" t="s">
         <v>18</v>
       </c>
-      <c r="BN11" s="17" t="s">
+      <c r="BN11" s="15" t="s">
         <v>228</v>
       </c>
     </row>
@@ -2532,7 +2540,7 @@
       <c r="A12" t="s">
         <v>76</v>
       </c>
-      <c r="B12" s="5" t="str">
+      <c r="B12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>国家外国专家局</v>
       </c>
@@ -2548,10 +2556,10 @@
       <c r="G12" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="BM12" s="2" t="s">
+      <c r="BM12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2559,7 +2567,7 @@
       <c r="A13" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="5" t="str">
+      <c r="B13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>工业和信息化部</v>
       </c>
@@ -2575,150 +2583,150 @@
       <c r="G13" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="7" t="s">
         <v>252</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="J13" s="8" t="s">
+      <c r="J13" s="7" t="s">
         <v>253</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="L13" s="8" t="s">
+      <c r="L13" s="7" t="s">
         <v>256</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="N13" s="8" t="s">
+      <c r="N13" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="O13" s="10" t="s">
+      <c r="O13" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="P13" s="8" t="s">
+      <c r="P13" s="7" t="s">
         <v>259</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="R13" s="8" t="s">
+      <c r="R13" s="7" t="s">
         <v>262</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="T13" s="8" t="s">
+      <c r="T13" s="7" t="s">
         <v>263</v>
       </c>
       <c r="U13" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="V13" s="8" t="s">
+      <c r="V13" s="7" t="s">
         <v>268</v>
       </c>
       <c r="W13" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="X13" s="8" t="s">
+      <c r="X13" s="7" t="s">
         <v>269</v>
       </c>
       <c r="Y13" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="Z13" s="8" t="s">
+      <c r="Z13" s="7" t="s">
         <v>270</v>
       </c>
       <c r="AA13" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="AB13" s="8" t="s">
+      <c r="AB13" s="7" t="s">
         <v>272</v>
       </c>
       <c r="AC13" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="AD13" s="8" t="s">
+      <c r="AD13" s="7" t="s">
         <v>273</v>
       </c>
       <c r="AE13" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="AF13" s="8" t="s">
+      <c r="AF13" s="7" t="s">
         <v>284</v>
       </c>
       <c r="AG13" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="AH13" s="8" t="s">
+      <c r="AH13" s="7" t="s">
         <v>286</v>
       </c>
       <c r="AI13" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="AJ13" s="8" t="s">
+      <c r="AJ13" s="7" t="s">
         <v>288</v>
       </c>
       <c r="AK13" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="AL13" s="8" t="s">
+      <c r="AL13" s="7" t="s">
         <v>290</v>
       </c>
       <c r="AM13" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="AN13" s="8" t="s">
+      <c r="AN13" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="AO13" s="9" t="s">
+      <c r="AO13" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="AP13" s="8" t="s">
+      <c r="AP13" s="7" t="s">
         <v>295</v>
       </c>
       <c r="AQ13" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="AR13" s="8" t="s">
+      <c r="AR13" s="7" t="s">
         <v>305</v>
       </c>
       <c r="AS13" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="AT13" s="8" t="s">
+      <c r="AT13" s="7" t="s">
         <v>307</v>
       </c>
       <c r="AU13" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="AV13" s="8" t="s">
+      <c r="AV13" s="7" t="s">
         <v>310</v>
       </c>
       <c r="AW13" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="AX13" s="8" t="s">
+      <c r="AX13" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="AY13" s="8"/>
-      <c r="AZ13" s="8"/>
-      <c r="BA13" s="8"/>
-      <c r="BB13" s="8"/>
-      <c r="BC13" s="8"/>
-      <c r="BD13" s="8"/>
-      <c r="BE13" s="8"/>
-      <c r="BF13" s="8"/>
-      <c r="BG13" s="8"/>
-      <c r="BH13" s="8"/>
-      <c r="BI13" s="8"/>
-      <c r="BJ13" s="8"/>
-      <c r="BK13" s="8"/>
-      <c r="BL13" s="8"/>
-      <c r="BM13" s="2" t="s">
+      <c r="AY13" s="7"/>
+      <c r="AZ13" s="7"/>
+      <c r="BA13" s="7"/>
+      <c r="BB13" s="7"/>
+      <c r="BC13" s="7"/>
+      <c r="BD13" s="7"/>
+      <c r="BE13" s="7"/>
+      <c r="BF13" s="7"/>
+      <c r="BG13" s="7"/>
+      <c r="BH13" s="7"/>
+      <c r="BI13" s="7"/>
+      <c r="BJ13" s="7"/>
+      <c r="BK13" s="7"/>
+      <c r="BL13" s="7"/>
+      <c r="BM13" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2726,7 +2734,7 @@
       <c r="A14" t="s">
         <v>76</v>
       </c>
-      <c r="B14" s="5" t="str">
+      <c r="B14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>国家国防科技工业局</v>
       </c>
@@ -2742,58 +2750,58 @@
       <c r="G14" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="7" t="s">
         <v>313</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J14" s="8" t="s">
+      <c r="J14" s="7" t="s">
         <v>315</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="L14" s="8" t="s">
+      <c r="L14" s="7" t="s">
         <v>316</v>
       </c>
       <c r="M14" t="s">
         <v>317</v>
       </c>
-      <c r="N14" s="7" t="s">
+      <c r="N14" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="O14" s="10" t="s">
+      <c r="O14" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="P14" s="8" t="s">
+      <c r="P14" s="7" t="s">
         <v>320</v>
       </c>
       <c r="Q14" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="R14" s="8" t="s">
+      <c r="R14" s="7" t="s">
         <v>321</v>
       </c>
       <c r="S14" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="T14" s="8" t="s">
+      <c r="T14" s="7" t="s">
         <v>324</v>
       </c>
       <c r="U14" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="V14" s="8" t="s">
+      <c r="V14" s="7" t="s">
         <v>325</v>
       </c>
       <c r="W14" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="X14" s="8" t="s">
+      <c r="X14" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="BM14" s="2" t="s">
+      <c r="BM14" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2801,7 +2809,7 @@
       <c r="A15" t="s">
         <v>76</v>
       </c>
-      <c r="B15" s="5" t="str">
+      <c r="B15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>中国国家航天局</v>
       </c>
@@ -2817,34 +2825,34 @@
       <c r="G15" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="7" t="s">
         <v>329</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="J15" s="8" t="s">
+      <c r="J15" s="7" t="s">
         <v>330</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="L15" s="6" t="s">
         <v>331</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="N15" s="7" t="s">
+      <c r="N15" s="6" t="s">
         <v>332</v>
       </c>
       <c r="O15" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="P15" s="8" t="s">
+      <c r="P15" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="BM15" s="2" t="s">
+      <c r="BM15" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2852,14 +2860,14 @@
       <c r="A16" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="5" t="str">
+      <c r="B16" s="4" t="str">
         <f t="shared" si="0"/>
         <v>中国国家原子能机构</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F16" s="1" t="s">
@@ -2868,28 +2876,28 @@
       <c r="G16" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="7" t="s">
         <v>338</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="J16" s="8" t="s">
+      <c r="J16" s="7" t="s">
         <v>341</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="L16" s="8" t="s">
+      <c r="L16" s="7" t="s">
         <v>342</v>
       </c>
       <c r="M16" t="s">
         <v>343</v>
       </c>
-      <c r="N16" s="7" t="s">
+      <c r="N16" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="BM16" s="2" t="s">
+      <c r="BM16" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2897,7 +2905,7 @@
       <c r="A17" t="s">
         <v>76</v>
       </c>
-      <c r="B17" s="5" t="str">
+      <c r="B17" s="4" t="str">
         <f t="shared" si="0"/>
         <v>中国信息通信研究院</v>
       </c>
@@ -2910,7 +2918,7 @@
       <c r="F17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="BM17" s="2" t="s">
+      <c r="BM17" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2918,7 +2926,7 @@
       <c r="A18" t="s">
         <v>76</v>
       </c>
-      <c r="B18" s="5" t="str">
+      <c r="B18" s="4" t="str">
         <f t="shared" si="0"/>
         <v>国家市场监督管理总局</v>
       </c>
@@ -2931,7 +2939,7 @@
       <c r="F18" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BM18" s="2" t="s">
+      <c r="BM18" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2939,7 +2947,7 @@
       <c r="A19" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="5" t="str">
+      <c r="B19" s="4" t="str">
         <f t="shared" si="0"/>
         <v>中国国家知识产权局</v>
       </c>
@@ -2952,7 +2960,7 @@
       <c r="F19" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BM19" s="2" t="s">
+      <c r="BM19" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2960,7 +2968,7 @@
       <c r="A20" t="s">
         <v>76</v>
       </c>
-      <c r="B20" s="5" t="str">
+      <c r="B20" s="4" t="str">
         <f t="shared" si="0"/>
         <v>国家发展和改革委员会</v>
       </c>
@@ -2973,7 +2981,7 @@
       <c r="F20" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BM20" s="2" t="s">
+      <c r="BM20" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2981,7 +2989,7 @@
       <c r="A21" t="s">
         <v>76</v>
       </c>
-      <c r="B21" s="5" t="str">
+      <c r="B21" s="4" t="str">
         <f t="shared" si="0"/>
         <v>中国科学院</v>
       </c>
@@ -2994,7 +3002,7 @@
       <c r="F21" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BM21" s="2" t="s">
+      <c r="BM21" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3002,7 +3010,7 @@
       <c r="A22" t="s">
         <v>76</v>
       </c>
-      <c r="B22" s="5" t="str">
+      <c r="B22" s="4" t="str">
         <f t="shared" si="0"/>
         <v>中国工程院</v>
       </c>
@@ -3015,7 +3023,7 @@
       <c r="F22" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BM22" s="2" t="s">
+      <c r="BM22" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3023,7 +3031,7 @@
       <c r="A23" t="s">
         <v>76</v>
       </c>
-      <c r="B23" s="5" t="str">
+      <c r="B23" s="4" t="str">
         <f t="shared" si="0"/>
         <v>NPC 教育科学文化和公共卫生委员会</v>
       </c>
@@ -3033,7 +3041,7 @@
       <c r="F23" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BM23" s="2" t="s">
+      <c r="BM23" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3041,7 +3049,7 @@
       <c r="A24" t="s">
         <v>76</v>
       </c>
-      <c r="B24" s="5" t="str">
+      <c r="B24" s="4" t="str">
         <f t="shared" si="0"/>
         <v>政协教科卫体委员会</v>
       </c>
@@ -3051,7 +3059,7 @@
       <c r="F24" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="BM24" s="2" t="s">
+      <c r="BM24" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3059,7 +3067,7 @@
       <c r="A25" t="s">
         <v>76</v>
       </c>
-      <c r="B25" s="5" t="str">
+      <c r="B25" s="4" t="str">
         <f t="shared" si="0"/>
         <v>中国科学技术协会</v>
       </c>
@@ -3069,7 +3077,7 @@
       <c r="E25" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BM25" s="2" t="s">
+      <c r="BM25" t="s">
         <v>73</v>
       </c>
     </row>
@@ -3077,7 +3085,7 @@
       <c r="A26" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="5" t="str">
+      <c r="B26" s="4" t="str">
         <f t="shared" si="0"/>
         <v>国有资产监督管理委员会</v>
       </c>
@@ -3090,7 +3098,7 @@
       <c r="F26" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BM26" s="2" t="s">
+      <c r="BM26" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3098,7 +3106,7 @@
       <c r="A27" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="5" t="str">
+      <c r="B27" s="4" t="str">
         <f t="shared" si="0"/>
         <v>商务部</v>
       </c>
@@ -3114,162 +3122,162 @@
       <c r="G27" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="H27" s="8" t="s">
+      <c r="H27" s="7" t="s">
         <v>345</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="J27" s="8" t="s">
+      <c r="J27" s="7" t="s">
         <v>347</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="L27" s="8" t="s">
+      <c r="L27" s="7" t="s">
         <v>350</v>
       </c>
       <c r="M27" t="s">
         <v>351</v>
       </c>
-      <c r="N27" s="7" t="s">
+      <c r="N27" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="O27" s="10" t="s">
+      <c r="O27" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="P27" s="8" t="s">
+      <c r="P27" s="7" t="s">
         <v>353</v>
       </c>
       <c r="Q27" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="R27" s="8" t="s">
+      <c r="R27" s="7" t="s">
         <v>355</v>
       </c>
       <c r="S27" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="T27" s="8" t="s">
+      <c r="T27" s="7" t="s">
         <v>357</v>
       </c>
       <c r="U27" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="V27" s="8" t="s">
+      <c r="V27" s="7" t="s">
         <v>369</v>
       </c>
       <c r="W27" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="X27" s="8" t="s">
+      <c r="X27" s="7" t="s">
         <v>370</v>
       </c>
       <c r="Y27" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="Z27" s="8" t="s">
+      <c r="Z27" s="7" t="s">
         <v>371</v>
       </c>
       <c r="AA27" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="AB27" s="8" t="s">
+      <c r="AB27" s="7" t="s">
         <v>372</v>
       </c>
       <c r="AC27" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="AD27" s="8" t="s">
+      <c r="AD27" s="7" t="s">
         <v>373</v>
       </c>
       <c r="AE27" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="AF27" s="8" t="s">
+      <c r="AF27" s="7" t="s">
         <v>374</v>
       </c>
       <c r="AG27" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="AH27" s="8" t="s">
+      <c r="AH27" s="7" t="s">
         <v>375</v>
       </c>
       <c r="AI27" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="AJ27" s="8" t="s">
+      <c r="AJ27" s="7" t="s">
         <v>376</v>
       </c>
       <c r="AK27" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="AL27" s="8" t="s">
+      <c r="AL27" s="7" t="s">
         <v>377</v>
       </c>
       <c r="AM27" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="AN27" s="8" t="s">
+      <c r="AN27" s="7" t="s">
         <v>378</v>
       </c>
       <c r="AO27" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="AP27" s="8" t="s">
+      <c r="AP27" s="7" t="s">
         <v>383</v>
       </c>
       <c r="AQ27" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="AR27" s="8" t="s">
+      <c r="AR27" s="7" t="s">
         <v>384</v>
       </c>
       <c r="AS27" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="AT27" s="8" t="s">
+      <c r="AT27" s="7" t="s">
         <v>385</v>
       </c>
       <c r="AU27" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="AV27" s="8" t="s">
+      <c r="AV27" s="7" t="s">
         <v>386</v>
       </c>
       <c r="AW27" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="AX27" s="8" t="s">
+      <c r="AX27" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="AY27" s="9" t="s">
+      <c r="AY27" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="AZ27" s="8" t="s">
+      <c r="AZ27" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="BA27" s="9" t="s">
+      <c r="BA27" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="BB27" s="8" t="s">
+      <c r="BB27" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="BC27" s="9" t="s">
+      <c r="BC27" s="8" t="s">
         <v>407</v>
       </c>
-      <c r="BD27" s="8" t="s">
+      <c r="BD27" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="BE27" s="8"/>
-      <c r="BF27" s="8"/>
-      <c r="BG27" s="8"/>
-      <c r="BH27" s="8"/>
-      <c r="BI27" s="8"/>
-      <c r="BJ27" s="8"/>
-      <c r="BK27" s="8"/>
-      <c r="BL27" s="8"/>
-      <c r="BM27" s="2" t="s">
+      <c r="BE27" s="7"/>
+      <c r="BF27" s="7"/>
+      <c r="BG27" s="7"/>
+      <c r="BH27" s="7"/>
+      <c r="BI27" s="7"/>
+      <c r="BJ27" s="7"/>
+      <c r="BK27" s="7"/>
+      <c r="BL27" s="7"/>
+      <c r="BM27" t="s">
         <v>84</v>
       </c>
     </row>
@@ -3277,7 +3285,7 @@
       <c r="A28" t="s">
         <v>76</v>
       </c>
-      <c r="B28" s="5" t="str">
+      <c r="B28" s="4" t="str">
         <f t="shared" si="0"/>
         <v>农业农村部</v>
       </c>
@@ -3290,7 +3298,7 @@
       <c r="F28" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BM28" s="2" t="s">
+      <c r="BM28" t="s">
         <v>89</v>
       </c>
     </row>
@@ -3298,7 +3306,7 @@
       <c r="A29" t="s">
         <v>76</v>
       </c>
-      <c r="B29" s="5" t="str">
+      <c r="B29" s="4" t="str">
         <f t="shared" si="0"/>
         <v>海关总署</v>
       </c>
@@ -3311,7 +3319,7 @@
       <c r="F29" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BM29" s="2" t="s">
+      <c r="BM29" t="s">
         <v>91</v>
       </c>
     </row>
@@ -3319,7 +3327,7 @@
       <c r="A30" t="s">
         <v>76</v>
       </c>
-      <c r="B30" s="5" t="str">
+      <c r="B30" s="4" t="str">
         <f t="shared" si="0"/>
         <v>国家统计局</v>
       </c>
@@ -3332,7 +3340,7 @@
       <c r="F30" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BM30" s="2" t="s">
+      <c r="BM30" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3340,7 +3348,7 @@
       <c r="A31" t="s">
         <v>76</v>
       </c>
-      <c r="B31" s="5" t="str">
+      <c r="B31" s="4" t="str">
         <f t="shared" si="0"/>
         <v>中国人民银行</v>
       </c>
@@ -3355,7 +3363,7 @@
       <c r="A32" t="s">
         <v>76</v>
       </c>
-      <c r="B32" s="5" t="str">
+      <c r="B32" s="4" t="str">
         <f t="shared" si="0"/>
         <v>财政部</v>
       </c>
@@ -3373,7 +3381,7 @@
       <c r="A33" t="s">
         <v>76</v>
       </c>
-      <c r="B33" s="5" t="str">
+      <c r="B33" s="4" t="str">
         <f t="shared" si="0"/>
         <v>中华全国工商联</v>
       </c>
@@ -3383,7 +3391,7 @@
       <c r="E33" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="BM33" s="2" t="s">
+      <c r="BM33" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3391,7 +3399,7 @@
       <c r="A34" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="5" t="str">
+      <c r="B34" s="4" t="str">
         <f t="shared" si="0"/>
         <v>中共中央外事委员会</v>
       </c>
@@ -3404,7 +3412,7 @@
       <c r="F34" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="BM34" s="2" t="s">
+      <c r="BM34" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3412,7 +3420,7 @@
       <c r="A35" t="s">
         <v>76</v>
       </c>
-      <c r="B35" s="5" t="str">
+      <c r="B35" s="4" t="str">
         <f t="shared" si="0"/>
         <v>中央外事办公室</v>
       </c>
@@ -3425,7 +3433,7 @@
       <c r="F35" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="BM35" s="2" t="s">
+      <c r="BM35" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3433,7 +3441,7 @@
       <c r="A36" t="s">
         <v>76</v>
       </c>
-      <c r="B36" s="5" t="str">
+      <c r="B36" s="4" t="str">
         <f t="shared" si="0"/>
         <v>中共中央国家安全委员会</v>
       </c>
@@ -3446,7 +3454,7 @@
       <c r="F36" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="BM36" s="2" t="s">
+      <c r="BM36" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3454,7 +3462,7 @@
       <c r="A37" t="s">
         <v>76</v>
       </c>
-      <c r="B37" s="5" t="str">
+      <c r="B37" s="4" t="str">
         <f t="shared" si="0"/>
         <v>CCP 国际联络部</v>
       </c>
@@ -3467,7 +3475,7 @@
       <c r="F37" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="BM37" s="2" t="s">
+      <c r="BM37" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3475,7 +3483,7 @@
       <c r="A38" t="s">
         <v>76</v>
       </c>
-      <c r="B38" s="5" t="str">
+      <c r="B38" s="4" t="str">
         <f t="shared" si="0"/>
         <v>外交部</v>
       </c>
@@ -3488,7 +3496,7 @@
       <c r="F38" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BM38" s="2" t="s">
+      <c r="BM38" t="s">
         <v>118</v>
       </c>
     </row>
@@ -3496,7 +3504,7 @@
       <c r="A39" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="5" t="str">
+      <c r="B39" s="4" t="str">
         <f t="shared" si="0"/>
         <v>国家推进“一带一路”建设领导小组</v>
       </c>
@@ -3509,7 +3517,7 @@
       <c r="F39" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BM39" s="2" t="s">
+      <c r="BM39" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3517,7 +3525,7 @@
       <c r="A40" t="s">
         <v>76</v>
       </c>
-      <c r="B40" s="5" t="str">
+      <c r="B40" s="4" t="str">
         <f t="shared" si="0"/>
         <v>中国国际发展合作署</v>
       </c>
@@ -3530,7 +3538,7 @@
       <c r="F40" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BM40" s="2" t="s">
+      <c r="BM40" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3538,7 +3546,7 @@
       <c r="A41" t="s">
         <v>76</v>
       </c>
-      <c r="B41" s="5" t="str">
+      <c r="B41" s="4" t="str">
         <f t="shared" si="0"/>
         <v>中共中央台湾事务领导小组</v>
       </c>
@@ -3551,7 +3559,7 @@
       <c r="F41" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="BM41" s="2" t="s">
+      <c r="BM41" t="s">
         <v>127</v>
       </c>
     </row>
@@ -3559,7 +3567,7 @@
       <c r="A42" t="s">
         <v>76</v>
       </c>
-      <c r="B42" s="5" t="str">
+      <c r="B42" s="4" t="str">
         <f t="shared" si="0"/>
         <v>国务院台湾事务办公室</v>
       </c>
@@ -3572,7 +3580,7 @@
       <c r="F42" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="BM42" s="2" t="s">
+      <c r="BM42" t="s">
         <v>130</v>
       </c>
     </row>
@@ -3580,7 +3588,7 @@
       <c r="A43" t="s">
         <v>76</v>
       </c>
-      <c r="B43" s="5" t="str">
+      <c r="B43" s="4" t="str">
         <f t="shared" si="0"/>
         <v>国家能源委员会</v>
       </c>
@@ -3593,7 +3601,7 @@
       <c r="F43" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="BM43" s="2" t="s">
+      <c r="BM43" t="s">
         <v>133</v>
       </c>
     </row>
@@ -3601,7 +3609,7 @@
       <c r="A44" t="s">
         <v>76</v>
       </c>
-      <c r="B44" s="5" t="str">
+      <c r="B44" s="4" t="str">
         <f t="shared" si="0"/>
         <v>国家能源局</v>
       </c>
@@ -3614,7 +3622,7 @@
       <c r="F44" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BM44" s="2" t="s">
+      <c r="BM44" t="s">
         <v>136</v>
       </c>
     </row>
@@ -3622,7 +3630,7 @@
       <c r="A45" t="s">
         <v>76</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="4" t="s">
         <v>140</v>
       </c>
       <c r="D45" s="1" t="s">
@@ -3634,27 +3642,27 @@
       <c r="F45" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H45" s="7" t="s">
+      <c r="H45" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
-      <c r="M45" s="7"/>
-      <c r="N45" s="7"/>
-      <c r="O45" s="11"/>
-      <c r="P45" s="8"/>
-      <c r="Q45" s="8"/>
-      <c r="R45" s="8"/>
-      <c r="S45" s="8"/>
-      <c r="T45" s="8"/>
-      <c r="U45" s="8"/>
-      <c r="V45" s="8"/>
-      <c r="W45" s="8"/>
-      <c r="X45" s="8"/>
-      <c r="Y45" s="8"/>
-      <c r="Z45" s="8"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="9"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="7"/>
+      <c r="S45" s="7"/>
+      <c r="T45" s="7"/>
+      <c r="U45" s="7"/>
+      <c r="V45" s="7"/>
+      <c r="W45" s="7"/>
+      <c r="X45" s="7"/>
+      <c r="Y45" s="7"/>
+      <c r="Z45" s="7"/>
       <c r="BM45" s="1" t="s">
         <v>143</v>
       </c>
@@ -3663,7 +3671,7 @@
       <c r="A46" t="s">
         <v>76</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="4" t="s">
         <v>141</v>
       </c>
       <c r="D46" s="1" t="s">
@@ -3675,27 +3683,27 @@
       <c r="F46" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H46" s="7" t="s">
+      <c r="H46" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7"/>
-      <c r="M46" s="7"/>
-      <c r="N46" s="7"/>
-      <c r="O46" s="11"/>
-      <c r="P46" s="8"/>
-      <c r="Q46" s="8"/>
-      <c r="R46" s="8"/>
-      <c r="S46" s="8"/>
-      <c r="T46" s="8"/>
-      <c r="U46" s="8"/>
-      <c r="V46" s="8"/>
-      <c r="W46" s="8"/>
-      <c r="X46" s="8"/>
-      <c r="Y46" s="8"/>
-      <c r="Z46" s="8"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="9"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="7"/>
+      <c r="S46" s="7"/>
+      <c r="T46" s="7"/>
+      <c r="U46" s="7"/>
+      <c r="V46" s="7"/>
+      <c r="W46" s="7"/>
+      <c r="X46" s="7"/>
+      <c r="Y46" s="7"/>
+      <c r="Z46" s="7"/>
       <c r="BM46" s="1" t="s">
         <v>143</v>
       </c>
@@ -3704,7 +3712,7 @@
       <c r="A47" t="s">
         <v>76</v>
       </c>
-      <c r="B47" s="5" t="str">
+      <c r="B47" s="4" t="str">
         <f>_xlfn.TRANSLATE(D47, "en", "zh-chs")</f>
         <v>科技日报</v>
       </c>
@@ -3714,7 +3722,7 @@
       <c r="F47" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="BM47" s="2" t="s">
+      <c r="BM47" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3840,4 +3848,3085 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2718BF4A-ECC3-A84C-8A36-D58259E3A1C4}">
+  <dimension ref="A1:H148"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
+  <cols>
+    <col min="2" max="2" width="20.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="48.83203125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="14.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="48">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1">
+      <c r="A2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="13"/>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1">
+      <c r="A3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="13"/>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="87">
+      <c r="A4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H4" s="13"/>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1" ht="87">
+      <c r="A5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="87">
+      <c r="A6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H6" s="13"/>
+    </row>
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="53">
+      <c r="A7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="70">
+      <c r="A8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" s="1" customFormat="1" ht="87">
+      <c r="A9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" s="1" customFormat="1" ht="104">
+      <c r="A10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" s="1" customFormat="1" ht="104">
+      <c r="A11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" s="1" customFormat="1" ht="104">
+      <c r="A12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" s="1" customFormat="1" ht="104">
+      <c r="A13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" s="1" customFormat="1" ht="53">
+      <c r="A14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" ht="87">
+      <c r="A15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="4" t="str">
+        <f>_xlfn.TRANSLATE(D15, "en", "zh-chs")</f>
+        <v>中共中央全面深化改革委员会</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="36">
+      <c r="A16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="4" t="str">
+        <f t="shared" ref="B16:B145" si="0">_xlfn.TRANSLATE(D16, "en", "zh-chs")</f>
+        <v>中共中央军民融合发展委员会</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="104">
+      <c r="A17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>中共中央网信办</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="87">
+      <c r="A18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="4" t="str">
+        <f t="shared" ref="B18:B27" si="1">_xlfn.TRANSLATE(D18, "en", "zh-chs")</f>
+        <v>中共中央网信办</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="87">
+      <c r="A19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>中共中央网信办</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="104">
+      <c r="A20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>中共中央网信办</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="104">
+      <c r="A21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>中共中央网信办</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="87">
+      <c r="A22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>中共中央网信办</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="87">
+      <c r="A23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>中共中央网信办</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="87">
+      <c r="A24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>中共中央网信办</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="87">
+      <c r="A25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>中共中央网信办</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="87">
+      <c r="A26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>中共中央网信办</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="87">
+      <c r="A27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>中共中央网信办</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="104">
+      <c r="A28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>中国国家互联网信息办公室</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="87">
+      <c r="A29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="4" t="str">
+        <f t="shared" ref="B29:B38" si="2">_xlfn.TRANSLATE(D29, "en", "zh-chs")</f>
+        <v>中国国家互联网信息办公室</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="87">
+      <c r="A30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>中国国家互联网信息办公室</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="104">
+      <c r="A31" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>中国国家互联网信息办公室</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="104">
+      <c r="A32" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>中国国家互联网信息办公室</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="87">
+      <c r="A33" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>中国国家互联网信息办公室</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="87">
+      <c r="A34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>中国国家互联网信息办公室</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="87">
+      <c r="A35" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>中国国家互联网信息办公室</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="87">
+      <c r="A36" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>中国国家互联网信息办公室</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="87">
+      <c r="A37" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>中国国家互联网信息办公室</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="87">
+      <c r="A38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>中国国家互联网信息办公室</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>中共中央科学技术委员会</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="70">
+      <c r="A40" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>科学技术部</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H40" s="15" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="70">
+      <c r="A41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" s="4" t="str">
+        <f t="shared" ref="B41:B52" si="3">_xlfn.TRANSLATE(D41, "en", "zh-chs")</f>
+        <v>科学技术部</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="H41" s="15"/>
+    </row>
+    <row r="42" spans="1:8" ht="70">
+      <c r="A42" t="s">
+        <v>76</v>
+      </c>
+      <c r="B42" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>科学技术部</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="H42" s="15"/>
+    </row>
+    <row r="43" spans="1:8" ht="70">
+      <c r="A43" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>科学技术部</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="H43" s="15"/>
+    </row>
+    <row r="44" spans="1:8" ht="53">
+      <c r="A44" t="s">
+        <v>76</v>
+      </c>
+      <c r="B44" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>科学技术部</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="H44" s="15"/>
+    </row>
+    <row r="45" spans="1:8" ht="104">
+      <c r="A45" t="s">
+        <v>76</v>
+      </c>
+      <c r="B45" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>科学技术部</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="H45" s="15"/>
+    </row>
+    <row r="46" spans="1:8" ht="87">
+      <c r="A46" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>科学技术部</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="H46" s="15"/>
+    </row>
+    <row r="47" spans="1:8" ht="70">
+      <c r="A47" t="s">
+        <v>76</v>
+      </c>
+      <c r="B47" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>科学技术部</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="H47" s="15"/>
+    </row>
+    <row r="48" spans="1:8" ht="70">
+      <c r="A48" t="s">
+        <v>76</v>
+      </c>
+      <c r="B48" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>科学技术部</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="H48" s="15"/>
+    </row>
+    <row r="49" spans="1:8" ht="70">
+      <c r="A49" t="s">
+        <v>76</v>
+      </c>
+      <c r="B49" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>科学技术部</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="H49" s="15"/>
+    </row>
+    <row r="50" spans="1:8" ht="87">
+      <c r="A50" t="s">
+        <v>76</v>
+      </c>
+      <c r="B50" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>科学技术部</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="H50" s="15"/>
+    </row>
+    <row r="51" spans="1:8" ht="104">
+      <c r="A51" t="s">
+        <v>76</v>
+      </c>
+      <c r="B51" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>科学技术部</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="H51" s="15"/>
+    </row>
+    <row r="52" spans="1:8" ht="104">
+      <c r="A52" t="s">
+        <v>76</v>
+      </c>
+      <c r="B52" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>科学技术部</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="H52" s="15"/>
+    </row>
+    <row r="53" spans="1:8" ht="36">
+      <c r="A53" t="s">
+        <v>76</v>
+      </c>
+      <c r="B53" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>国家外国专家局</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="70">
+      <c r="A54" t="s">
+        <v>76</v>
+      </c>
+      <c r="B54" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>工业和信息化部</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="87">
+      <c r="A55" t="s">
+        <v>76</v>
+      </c>
+      <c r="B55" s="4" t="str">
+        <f t="shared" ref="B55:B75" si="4">_xlfn.TRANSLATE(D55, "en", "zh-chs")</f>
+        <v>工业和信息化部</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="87">
+      <c r="A56" t="s">
+        <v>76</v>
+      </c>
+      <c r="B56" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>工业和信息化部</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="104">
+      <c r="A57" t="s">
+        <v>76</v>
+      </c>
+      <c r="B57" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>工业和信息化部</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="104">
+      <c r="A58" t="s">
+        <v>76</v>
+      </c>
+      <c r="B58" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>工业和信息化部</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="87">
+      <c r="A59" t="s">
+        <v>76</v>
+      </c>
+      <c r="B59" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>工业和信息化部</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="87">
+      <c r="A60" t="s">
+        <v>76</v>
+      </c>
+      <c r="B60" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>工业和信息化部</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="87">
+      <c r="A61" t="s">
+        <v>76</v>
+      </c>
+      <c r="B61" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>工业和信息化部</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="87">
+      <c r="A62" t="s">
+        <v>76</v>
+      </c>
+      <c r="B62" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>工业和信息化部</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="87">
+      <c r="A63" t="s">
+        <v>76</v>
+      </c>
+      <c r="B63" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>工业和信息化部</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="87">
+      <c r="A64" t="s">
+        <v>76</v>
+      </c>
+      <c r="B64" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>工业和信息化部</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="87">
+      <c r="A65" t="s">
+        <v>76</v>
+      </c>
+      <c r="B65" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>工业和信息化部</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="172">
+      <c r="A66" t="s">
+        <v>76</v>
+      </c>
+      <c r="B66" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>工业和信息化部</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="87">
+      <c r="A67" t="s">
+        <v>76</v>
+      </c>
+      <c r="B67" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>工业和信息化部</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="172">
+      <c r="A68" t="s">
+        <v>76</v>
+      </c>
+      <c r="B68" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>工业和信息化部</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="87">
+      <c r="A69" t="s">
+        <v>76</v>
+      </c>
+      <c r="B69" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>工业和信息化部</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="70">
+      <c r="A70" t="s">
+        <v>76</v>
+      </c>
+      <c r="B70" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>工业和信息化部</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="70">
+      <c r="A71" t="s">
+        <v>76</v>
+      </c>
+      <c r="B71" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>工业和信息化部</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="155">
+      <c r="A72" t="s">
+        <v>76</v>
+      </c>
+      <c r="B72" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>工业和信息化部</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="172">
+      <c r="A73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B73" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>工业和信息化部</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="70">
+      <c r="A74" t="s">
+        <v>76</v>
+      </c>
+      <c r="B74" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>工业和信息化部</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="87">
+      <c r="A75" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>工业和信息化部</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="104">
+      <c r="A76" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>国家国防科技工业局</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="104">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" s="4" t="str">
+        <f t="shared" ref="B77:B84" si="5">_xlfn.TRANSLATE(D77, "en", "zh-chs")</f>
+        <v>国家国防科技工业局</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="104">
+      <c r="A78" t="s">
+        <v>76</v>
+      </c>
+      <c r="B78" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>国家国防科技工业局</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="104">
+      <c r="A79" t="s">
+        <v>76</v>
+      </c>
+      <c r="B79" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>国家国防科技工业局</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="104">
+      <c r="A80" t="s">
+        <v>76</v>
+      </c>
+      <c r="B80" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>国家国防科技工业局</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="104">
+      <c r="A81" t="s">
+        <v>76</v>
+      </c>
+      <c r="B81" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>国家国防科技工业局</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="104">
+      <c r="A82" t="s">
+        <v>76</v>
+      </c>
+      <c r="B82" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>国家国防科技工业局</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="104">
+      <c r="A83" t="s">
+        <v>76</v>
+      </c>
+      <c r="B83" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>国家国防科技工业局</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="104">
+      <c r="A84" t="s">
+        <v>76</v>
+      </c>
+      <c r="B84" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>国家国防科技工业局</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="87">
+      <c r="A85" t="s">
+        <v>76</v>
+      </c>
+      <c r="B85" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>中国国家航天局</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="87">
+      <c r="A86" t="s">
+        <v>76</v>
+      </c>
+      <c r="B86" s="4" t="str">
+        <f t="shared" ref="B86:B89" si="6">_xlfn.TRANSLATE(D86, "en", "zh-chs")</f>
+        <v>中国国家航天局</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="G86" s="7" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="87">
+      <c r="A87" t="s">
+        <v>76</v>
+      </c>
+      <c r="B87" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>中国国家航天局</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="87">
+      <c r="A88" t="s">
+        <v>76</v>
+      </c>
+      <c r="B88" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>中国国家航天局</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="G88" s="7" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="87">
+      <c r="A89" t="s">
+        <v>76</v>
+      </c>
+      <c r="B89" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>中国国家航天局</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G89" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="87">
+      <c r="A90" t="s">
+        <v>76</v>
+      </c>
+      <c r="B90" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>中国国家原子能机构</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="87">
+      <c r="A91" t="s">
+        <v>76</v>
+      </c>
+      <c r="B91" s="4" t="str">
+        <f t="shared" ref="B91:B93" si="7">_xlfn.TRANSLATE(D91, "en", "zh-chs")</f>
+        <v>中国国家原子能机构</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="87">
+      <c r="A92" t="s">
+        <v>76</v>
+      </c>
+      <c r="B92" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>中国国家原子能机构</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="87">
+      <c r="A93" t="s">
+        <v>76</v>
+      </c>
+      <c r="B93" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>中国国家原子能机构</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" s="14" customFormat="1" ht="36">
+      <c r="A94" t="s">
+        <v>76</v>
+      </c>
+      <c r="B94" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>中国信息通信研究院</v>
+      </c>
+      <c r="C94" s="4"/>
+      <c r="D94" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F94" s="1"/>
+      <c r="G94"/>
+    </row>
+    <row r="95" spans="1:7" s="14" customFormat="1">
+      <c r="A95" t="s">
+        <v>76</v>
+      </c>
+      <c r="B95" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>国家市场监督管理总局</v>
+      </c>
+      <c r="C95" s="4"/>
+      <c r="D95" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F95" s="1"/>
+      <c r="G95"/>
+    </row>
+    <row r="96" spans="1:7" s="14" customFormat="1">
+      <c r="A96" t="s">
+        <v>76</v>
+      </c>
+      <c r="B96" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>中国国家知识产权局</v>
+      </c>
+      <c r="C96" s="4"/>
+      <c r="D96" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F96" s="1"/>
+      <c r="G96"/>
+    </row>
+    <row r="97" spans="1:7" s="14" customFormat="1">
+      <c r="A97" t="s">
+        <v>76</v>
+      </c>
+      <c r="B97" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>国家发展和改革委员会</v>
+      </c>
+      <c r="C97" s="4"/>
+      <c r="D97" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F97" s="1"/>
+      <c r="G97"/>
+    </row>
+    <row r="98" spans="1:7" s="14" customFormat="1">
+      <c r="A98" t="s">
+        <v>76</v>
+      </c>
+      <c r="B98" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>中国科学院</v>
+      </c>
+      <c r="C98" s="4"/>
+      <c r="D98" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F98" s="1"/>
+      <c r="G98"/>
+    </row>
+    <row r="99" spans="1:7" s="14" customFormat="1">
+      <c r="A99" t="s">
+        <v>76</v>
+      </c>
+      <c r="B99" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>中国工程院</v>
+      </c>
+      <c r="C99" s="4"/>
+      <c r="D99" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F99" s="1"/>
+      <c r="G99"/>
+    </row>
+    <row r="100" spans="1:7" s="14" customFormat="1" ht="36">
+      <c r="A100" t="s">
+        <v>76</v>
+      </c>
+      <c r="B100" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>NPC 教育科学文化和公共卫生委员会</v>
+      </c>
+      <c r="C100" s="4"/>
+      <c r="D100" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100"/>
+    </row>
+    <row r="101" spans="1:7" s="14" customFormat="1" ht="36">
+      <c r="A101" t="s">
+        <v>76</v>
+      </c>
+      <c r="B101" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>政协教科卫体委员会</v>
+      </c>
+      <c r="C101" s="4"/>
+      <c r="D101" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101"/>
+    </row>
+    <row r="102" spans="1:7" s="14" customFormat="1">
+      <c r="A102" t="s">
+        <v>76</v>
+      </c>
+      <c r="B102" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>中国科学技术协会</v>
+      </c>
+      <c r="C102" s="4"/>
+      <c r="D102" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F102" s="1"/>
+      <c r="G102"/>
+    </row>
+    <row r="103" spans="1:7" s="14" customFormat="1" ht="36">
+      <c r="A103" t="s">
+        <v>76</v>
+      </c>
+      <c r="B103" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>国有资产监督管理委员会</v>
+      </c>
+      <c r="C103" s="4"/>
+      <c r="D103" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F103" s="1"/>
+      <c r="G103"/>
+    </row>
+    <row r="104" spans="1:7" s="14" customFormat="1" ht="87">
+      <c r="A104" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B104" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="C104" s="17"/>
+      <c r="D104" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="G104" s="7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" s="14" customFormat="1" ht="87">
+      <c r="A105" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B105" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="C105" s="17"/>
+      <c r="D105" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="G105" s="7" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" s="14" customFormat="1" ht="104">
+      <c r="A106" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B106" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="C106" s="17"/>
+      <c r="D106" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="G106" s="7" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" s="14" customFormat="1" ht="104">
+      <c r="A107" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B107" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="C107" s="17"/>
+      <c r="D107" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G107" s="7" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" s="14" customFormat="1" ht="87">
+      <c r="A108" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B108" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="C108" s="17"/>
+      <c r="D108" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="G108" s="7" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" s="14" customFormat="1" ht="87">
+      <c r="A109" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B109" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="C109" s="17"/>
+      <c r="D109" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="G109" s="7" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" s="14" customFormat="1" ht="121">
+      <c r="A110" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B110" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="C110" s="17"/>
+      <c r="D110" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="G110" s="7" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" s="14" customFormat="1" ht="87">
+      <c r="A111" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B111" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="C111" s="17"/>
+      <c r="D111" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="G111" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" s="14" customFormat="1" ht="87">
+      <c r="A112" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B112" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="C112" s="17"/>
+      <c r="D112" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="G112" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" s="14" customFormat="1" ht="87">
+      <c r="A113" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B113" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="C113" s="17"/>
+      <c r="D113" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="G113" s="7" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" s="14" customFormat="1" ht="87">
+      <c r="A114" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B114" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="C114" s="17"/>
+      <c r="D114" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="G114" s="7" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" s="14" customFormat="1" ht="138">
+      <c r="A115" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B115" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="C115" s="17"/>
+      <c r="D115" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G115" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" s="14" customFormat="1" ht="87">
+      <c r="A116" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B116" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="C116" s="17"/>
+      <c r="D116" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="G116" s="7" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" s="14" customFormat="1" ht="87">
+      <c r="A117" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B117" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="C117" s="17"/>
+      <c r="D117" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="G117" s="7" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" s="14" customFormat="1" ht="87">
+      <c r="A118" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B118" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="C118" s="17"/>
+      <c r="D118" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="G118" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" s="14" customFormat="1" ht="87">
+      <c r="A119" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B119" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="C119" s="17"/>
+      <c r="D119" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="G119" s="7" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" s="14" customFormat="1" ht="104">
+      <c r="A120" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B120" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="C120" s="17"/>
+      <c r="D120" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="G120" s="7" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" s="14" customFormat="1" ht="104">
+      <c r="A121" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B121" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="C121" s="17"/>
+      <c r="D121" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="G121" s="7" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" s="14" customFormat="1" ht="87">
+      <c r="A122" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B122" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="C122" s="17"/>
+      <c r="D122" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="G122" s="7" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" s="14" customFormat="1" ht="87">
+      <c r="A123" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B123" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="C123" s="17"/>
+      <c r="D123" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="G123" s="7" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" s="14" customFormat="1" ht="104">
+      <c r="A124" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B124" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="C124" s="17"/>
+      <c r="D124" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="G124" s="7" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" s="14" customFormat="1" ht="70">
+      <c r="A125" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B125" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="C125" s="17"/>
+      <c r="D125" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="G125" s="7" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" s="14" customFormat="1" ht="70">
+      <c r="A126" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B126" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="C126" s="17"/>
+      <c r="D126" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="G126" s="7" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" s="14" customFormat="1" ht="121">
+      <c r="A127" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B127" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="C127" s="17"/>
+      <c r="D127" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="G127" s="7" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" s="14" customFormat="1" ht="87">
+      <c r="A128" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B128" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="C128" s="17"/>
+      <c r="D128" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="G128" s="7" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" s="14" customFormat="1">
+      <c r="A129" t="s">
+        <v>76</v>
+      </c>
+      <c r="B129" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>农业农村部</v>
+      </c>
+      <c r="C129" s="4"/>
+      <c r="D129" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F129" s="1"/>
+      <c r="G129"/>
+    </row>
+    <row r="130" spans="1:7" s="14" customFormat="1">
+      <c r="A130" t="s">
+        <v>76</v>
+      </c>
+      <c r="B130" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>海关总署</v>
+      </c>
+      <c r="C130" s="4"/>
+      <c r="D130" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F130" s="1"/>
+      <c r="G130"/>
+    </row>
+    <row r="131" spans="1:7" s="14" customFormat="1">
+      <c r="A131" t="s">
+        <v>76</v>
+      </c>
+      <c r="B131" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>国家统计局</v>
+      </c>
+      <c r="C131" s="4"/>
+      <c r="D131" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F131" s="1"/>
+      <c r="G131"/>
+    </row>
+    <row r="132" spans="1:7" s="14" customFormat="1">
+      <c r="A132" t="s">
+        <v>76</v>
+      </c>
+      <c r="B132" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>中国人民银行</v>
+      </c>
+      <c r="C132" s="4"/>
+      <c r="D132" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F132" s="1"/>
+      <c r="G132"/>
+    </row>
+    <row r="133" spans="1:7" s="14" customFormat="1">
+      <c r="A133" t="s">
+        <v>76</v>
+      </c>
+      <c r="B133" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>财政部</v>
+      </c>
+      <c r="C133" s="4"/>
+      <c r="D133" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F133" s="1"/>
+      <c r="G133"/>
+    </row>
+    <row r="134" spans="1:7" s="14" customFormat="1">
+      <c r="A134" t="s">
+        <v>76</v>
+      </c>
+      <c r="B134" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>中华全国工商联</v>
+      </c>
+      <c r="C134" s="4"/>
+      <c r="D134" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F134" s="1"/>
+      <c r="G134"/>
+    </row>
+    <row r="135" spans="1:7" s="14" customFormat="1">
+      <c r="A135" t="s">
+        <v>76</v>
+      </c>
+      <c r="B135" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>中共中央外事委员会</v>
+      </c>
+      <c r="C135" s="4"/>
+      <c r="D135" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F135" s="1"/>
+      <c r="G135"/>
+    </row>
+    <row r="136" spans="1:7" s="14" customFormat="1">
+      <c r="A136" t="s">
+        <v>76</v>
+      </c>
+      <c r="B136" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>中央外事办公室</v>
+      </c>
+      <c r="C136" s="4"/>
+      <c r="D136" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F136" s="1"/>
+      <c r="G136"/>
+    </row>
+    <row r="137" spans="1:7" s="14" customFormat="1">
+      <c r="A137" t="s">
+        <v>76</v>
+      </c>
+      <c r="B137" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>中共中央国家安全委员会</v>
+      </c>
+      <c r="C137" s="4"/>
+      <c r="D137" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F137" s="1"/>
+      <c r="G137"/>
+    </row>
+    <row r="138" spans="1:7" s="14" customFormat="1">
+      <c r="A138" t="s">
+        <v>76</v>
+      </c>
+      <c r="B138" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>CCP 国际联络部</v>
+      </c>
+      <c r="C138" s="4"/>
+      <c r="D138" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F138" s="1"/>
+      <c r="G138"/>
+    </row>
+    <row r="139" spans="1:7" s="14" customFormat="1">
+      <c r="A139" t="s">
+        <v>76</v>
+      </c>
+      <c r="B139" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>外交部</v>
+      </c>
+      <c r="C139" s="4"/>
+      <c r="D139" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F139" s="1"/>
+      <c r="G139"/>
+    </row>
+    <row r="140" spans="1:7" s="14" customFormat="1" ht="36">
+      <c r="A140" t="s">
+        <v>76</v>
+      </c>
+      <c r="B140" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>国家推进“一带一路”建设领导小组</v>
+      </c>
+      <c r="C140" s="4"/>
+      <c r="D140" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F140" s="1"/>
+      <c r="G140"/>
+    </row>
+    <row r="141" spans="1:7" s="14" customFormat="1">
+      <c r="A141" t="s">
+        <v>76</v>
+      </c>
+      <c r="B141" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>中国国际发展合作署</v>
+      </c>
+      <c r="C141" s="4"/>
+      <c r="D141" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F141" s="1"/>
+      <c r="G141"/>
+    </row>
+    <row r="142" spans="1:7" s="14" customFormat="1">
+      <c r="A142" t="s">
+        <v>76</v>
+      </c>
+      <c r="B142" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>中共中央台湾事务领导小组</v>
+      </c>
+      <c r="C142" s="4"/>
+      <c r="D142" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F142" s="1"/>
+      <c r="G142"/>
+    </row>
+    <row r="143" spans="1:7" s="14" customFormat="1">
+      <c r="A143" t="s">
+        <v>76</v>
+      </c>
+      <c r="B143" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>国务院台湾事务办公室</v>
+      </c>
+      <c r="C143" s="4"/>
+      <c r="D143" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F143" s="1"/>
+      <c r="G143"/>
+    </row>
+    <row r="144" spans="1:7" s="14" customFormat="1">
+      <c r="A144" t="s">
+        <v>76</v>
+      </c>
+      <c r="B144" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>国家能源委员会</v>
+      </c>
+      <c r="C144" s="4"/>
+      <c r="D144" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F144" s="1"/>
+      <c r="G144"/>
+    </row>
+    <row r="145" spans="1:7" s="14" customFormat="1">
+      <c r="A145" t="s">
+        <v>76</v>
+      </c>
+      <c r="B145" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>国家能源局</v>
+      </c>
+      <c r="C145" s="4"/>
+      <c r="D145" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F145" s="1"/>
+      <c r="G145"/>
+    </row>
+    <row r="146" spans="1:7" s="14" customFormat="1">
+      <c r="A146" t="s">
+        <v>76</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C146" s="4"/>
+      <c r="D146" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F146" s="1"/>
+      <c r="G146" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" s="14" customFormat="1">
+      <c r="A147" t="s">
+        <v>76</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C147" s="4"/>
+      <c r="D147" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F147" s="1"/>
+      <c r="G147" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" s="14" customFormat="1">
+      <c r="A148" t="s">
+        <v>76</v>
+      </c>
+      <c r="B148" s="4" t="str">
+        <f>_xlfn.TRANSLATE(D148, "en", "zh-chs")</f>
+        <v>科技日报</v>
+      </c>
+      <c r="C148" s="4"/>
+      <c r="D148" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1"/>
+      <c r="G148"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G146" r:id="rId1" xr:uid="{E4161D12-9C5D-CF46-AA82-E04B8550264C}"/>
+    <hyperlink ref="G147" r:id="rId2" xr:uid="{691F279A-5EF7-F748-8DE1-0ABED8B4DD64}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{FE4CCD67-D745-E248-88CD-ABB87EC72BAE}"/>
+    <hyperlink ref="G6" r:id="rId4" xr:uid="{812660AA-7E0A-AA4A-A973-4F19D052EFFC}"/>
+    <hyperlink ref="G7" r:id="rId5" xr:uid="{5B5CA7BC-1FDF-A540-B341-61551FAC4014}"/>
+    <hyperlink ref="G8" r:id="rId6" xr:uid="{BDE45140-0A5A-0949-824C-3C030FFDD0DA}"/>
+    <hyperlink ref="F8" r:id="rId7" display="http://cpc.people.com.cn/GB/67481/" xr:uid="{DF0CA797-5D1D-AA48-A7BB-F3553B731B37}"/>
+    <hyperlink ref="G9" r:id="rId8" xr:uid="{3764049E-14A4-874B-BDCE-6798F54DCC01}"/>
+    <hyperlink ref="G10" r:id="rId9" xr:uid="{C16DB34D-865E-1049-81A7-07F9C76F07FB}"/>
+    <hyperlink ref="G11" r:id="rId10" xr:uid="{C39D17C9-AFDE-2A4C-85FC-31C2F2A1064D}"/>
+    <hyperlink ref="G12" r:id="rId11" xr:uid="{717F9DE6-B875-8C45-BCAC-8CE232CBE787}"/>
+    <hyperlink ref="G13" r:id="rId12" xr:uid="{2B6D3BD5-8C64-DD41-A2E0-6C16DD5F7E6D}"/>
+    <hyperlink ref="G14" r:id="rId13" xr:uid="{E0439CCD-61FD-AE40-953D-E0667CEFB92C}"/>
+    <hyperlink ref="G15" r:id="rId14" xr:uid="{C5F72C1F-165E-2243-BEFE-8821939A149C}"/>
+    <hyperlink ref="G17" r:id="rId15" xr:uid="{9B0DF160-A649-8242-9752-C94F00D90E03}"/>
+    <hyperlink ref="G40" r:id="rId16" xr:uid="{D43226AA-AA2D-5647-AABA-268899E0CEC0}"/>
+    <hyperlink ref="G53" r:id="rId17" display="https://fwp.safea.gov.cn/lhgzweb/lhCmsArticleDisController.do?newCmsArticleList&amp;artType=TUlHS0FpRUF1bTc0N2NzOFFONllaU1J6REVON05QTDRUaE4yVlZ0bE5MYkVkOWZWUUdZQ0lRRHF4TldzOGQxQmU1N3JxeXByaEFOazBPeS9uSjFYWGZwQVdmNkFGSTkxK0FRZ2RTeHZoY3pUQ0kxc0ZGSGthWVlOQ2xNaThsL3BCMldDYTRWM1VvRDZUSTRFSVBuMENVQXAzaFFCRHJGZkRkMnJUbG91a1FUcUNDOTl0WWhBMWdBS3ZxQUs=&amp;artTypeName=%E5%85%AC%E5%91%8A%E9%80%9A%E7%9F%A5" xr:uid="{C3A668CB-6FFE-E743-A726-1B7D25E5190B}"/>
+    <hyperlink ref="G54" r:id="rId18" xr:uid="{12C87875-E948-F345-B26F-40E1A7DFBB51}"/>
+    <hyperlink ref="G76" r:id="rId19" xr:uid="{7D04C810-F1D5-C54F-80FC-CA03FEA4A7D2}"/>
+    <hyperlink ref="G85" r:id="rId20" xr:uid="{EDFBB357-103A-6641-934F-991AD95E7070}"/>
+    <hyperlink ref="G90" r:id="rId21" xr:uid="{DCC28D34-21B8-8143-80B9-1247829BA5FA}"/>
+    <hyperlink ref="G104" r:id="rId22" xr:uid="{8F972452-1C8B-0645-A1FD-23170D28B3C6}"/>
+    <hyperlink ref="G5" r:id="rId23" xr:uid="{1B48FAF1-7657-B642-B7D2-8488948CB89A}"/>
+    <hyperlink ref="G28" r:id="rId24" xr:uid="{F5EDE396-55F7-9C49-891A-2615C2A73A61}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>